--- a/2025春课程预选/课程表.xlsx
+++ b/2025春课程预选/课程表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28604"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHEID国际经济学硕士\IHEID\2025春课程预选\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4A59B6-689D-4E09-8CF2-BCEE2A739CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B95AB-42B7-40D5-A261-B34DCF2150F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,10 +93,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Impact Evaluation</t>
-  </si>
-  <si>
     <t>Economic Policy in Developing and Emerging Countries: A Practitioners' View</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +172,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,7 +453,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
@@ -522,21 +523,24 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="92.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/2025春课程预选/课程表.xlsx
+++ b/2025春课程预选/课程表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHEID国际经济学硕士\IHEID\2025春课程预选\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B95AB-42B7-40D5-A261-B34DCF2150F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0614090-EEA2-4F91-BBC3-C3D59214F08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,6 +98,11 @@
   </si>
   <si>
     <t>French</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Econometrics II
+S4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +458,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
@@ -462,7 +467,8 @@
     <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="8" width="16.06640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="16.06640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -497,12 +503,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="30.75" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -515,6 +521,9 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
@@ -522,6 +531,9 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="92.25" x14ac:dyDescent="0.4">

--- a/2025春课程预选/课程表.xlsx
+++ b/2025春课程预选/课程表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28604"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHEID国际经济学硕士\IHEID\2025春课程预选\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0614090-EEA2-4F91-BBC3-C3D59214F08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA088E0B-6798-46D4-8191-BA831F74B561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="23025" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Monday</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,9 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Financial Integration and Crises</t>
-  </si>
-  <si>
     <t>International Trade I</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -101,8 +98,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Econometrics II
-S4</t>
+    <t>Impact Evaluation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +454,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
@@ -468,7 +464,8 @@
     <col min="3" max="3" width="18.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.73046875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="16.06640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.06640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.06640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -495,20 +492,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -524,16 +518,22 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="92.25" x14ac:dyDescent="0.4">
@@ -541,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -552,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/2025春课程预选/课程表.xlsx
+++ b/2025春课程预选/课程表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IHEID国际经济学硕士\IHEID\2025春课程预选\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA088E0B-6798-46D4-8191-BA831F74B561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C36F4-C37C-4D99-90F7-ACC8326795C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="23025" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.4"/>
@@ -532,9 +532,6 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="92.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
@@ -545,6 +542,9 @@
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
